--- a/Pull Request Here/Blood Animations - 3228047321/Blood Animations - 3228047321.xlsx
+++ b/Pull Request Here/Blood Animations - 3228047321/Blood Animations - 3228047321.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2964759-1D66-4906-86C2-CB701808C695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246FDA76-52D0-4566-9503-583A3DE8C20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="78">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -155,133 +155,138 @@
     <t>Keyed+BloodAnimations_BulletCasingFilthToggle</t>
   </si>
   <si>
-    <t>탄피가 튀는 모션 활성화</t>
+    <t>BloodAnimations_BulletCasingToggle</t>
+  </si>
+  <si>
+    <t>Keyed+BloodAnimations_BulletCasingToggle</t>
+  </si>
+  <si>
+    <t>Filth left by particles (Percentage of particles that leave blood/debris filth that require colonists to clean up)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time until particles fade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount of bleeding particles (Animated bleeding based on pawn bleed rate)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount of blood/debris particles (Flying particles from direct damage)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blood Animations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차지 탄피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy bullet casings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filth_BulletCasingsCharge.label</t>
+  </si>
+  <si>
+    <t>ThingDef</t>
+  </si>
+  <si>
+    <t>ThingDef+Filth_BulletCasingsCharge.label</t>
+  </si>
+  <si>
+    <t>두꺼운 탄피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shotgun bullet casings</t>
+  </si>
+  <si>
+    <t>Filth_BulletCasingsShotgun.label</t>
+  </si>
+  <si>
+    <t>ThingDef+Filth_BulletCasingsShotgun.label</t>
+  </si>
+  <si>
+    <t>탄피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet casings</t>
+  </si>
+  <si>
+    <t>Filth_BulletCasingsRifle.label</t>
+  </si>
+  <si>
+    <t>ThingDef+Filth_BulletCasingsRifle.label</t>
+  </si>
+  <si>
+    <t>blood smear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fuu_Filth_BloodSmear_Fleshbeast.label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThingDef+Fuu_Filth_BloodSmear_Fleshbeast.label</t>
+  </si>
+  <si>
+    <t>피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>Fuu_Filth_Blood_Fleshbeast.label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>번진 피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청소가 필요한 오물로 전환되는 비율 (기본값: 15%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청소가 필요한 탄피 생성 활성화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThingDef+Fuu_Filth_Blood_Fleshbeast.label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파편과 핏자국 그래픽 효과가 사라지는 데 걸리는 시간 (기본값: 10 seconds)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격/타격 시에 파편이나 피가 튀는 그래픽 효과 (기본값: 100%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출혈 속도에 기반한 피 흘리는 그래픽 효과 (기본값: 100%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄피가 튀는 그래픽 효과 활성화</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Enable bullet casings (Shell ejection animation from firing guns)</t>
-  </si>
-  <si>
-    <t>BloodAnimations_BulletCasingToggle</t>
-  </si>
-  <si>
-    <t>Keyed+BloodAnimations_BulletCasingToggle</t>
-  </si>
-  <si>
-    <t>Filth left by particles (Percentage of particles that leave blood/debris filth that require colonists to clean up)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time until particles fade</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amount of bleeding particles (Animated bleeding based on pawn bleed rate)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amount of blood/debris particles (Flying particles from direct damage)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blood Animations</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>차지 탄피</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>energy bullet casings</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Filth_BulletCasingsCharge.label</t>
-  </si>
-  <si>
-    <t>ThingDef</t>
-  </si>
-  <si>
-    <t>ThingDef+Filth_BulletCasingsCharge.label</t>
-  </si>
-  <si>
-    <t>두꺼운 탄피</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shotgun bullet casings</t>
-  </si>
-  <si>
-    <t>Filth_BulletCasingsShotgun.label</t>
-  </si>
-  <si>
-    <t>ThingDef+Filth_BulletCasingsShotgun.label</t>
-  </si>
-  <si>
-    <t>탄피</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bullet casings</t>
-  </si>
-  <si>
-    <t>Filth_BulletCasingsRifle.label</t>
-  </si>
-  <si>
-    <t>ThingDef+Filth_BulletCasingsRifle.label</t>
-  </si>
-  <si>
-    <t>blood smear</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fuu_Filth_BloodSmear_Fleshbeast.label</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThingDef+Fuu_Filth_BloodSmear_Fleshbeast.label</t>
-  </si>
-  <si>
-    <t>피</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>blood</t>
-  </si>
-  <si>
-    <t>Fuu_Filth_Blood_Fleshbeast.label</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체의 지면 충돌 모션 활성화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>번진 피</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>청소가 필요한 오물로 전환되는 비율 (기본값: 15%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>청소가 필요한 탄피 생성 활성화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파편과 핏자국 그래픽 효과가 사라지는 시간 (기본값: 10 seconds)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출혈 속도에 기반한 피 흘리는 모션 (기본값: 100%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격/타격 시에 파편이나 피가 튀는 모션 (기본값: 100%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThingDef+Fuu_Filth_Blood_Fleshbeast.label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체가 지면에 충돌할 때 먼지가 날리는 그래픽 효과 활성화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>new</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -655,7 +660,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2D3C9D-BC7F-4951-8470-0E8B95B5DC7C}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -671,7 +676,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,92 +696,95 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -790,10 +798,10 @@
         <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -810,7 +818,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -821,13 +829,13 @@
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -838,13 +846,13 @@
         <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -855,13 +863,13 @@
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -872,30 +880,30 @@
         <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -909,10 +917,10 @@
         <v>38</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -926,10 +934,10 @@
         <v>35</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
